--- a/src/test/Data/CreatedAccount.xlsx
+++ b/src/test/Data/CreatedAccount.xlsx
@@ -59,43 +59,43 @@
     <t>Account1</t>
   </si>
   <si>
-    <t>Louella Streich</t>
-  </si>
-  <si>
-    <t>garth.fay@gmail.com</t>
-  </si>
-  <si>
-    <t>ahhx9otk</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Effertz</t>
-  </si>
-  <si>
-    <t>Cole, Dare and Kuvalis</t>
-  </si>
-  <si>
-    <t>Gilda</t>
-  </si>
-  <si>
-    <t>Apt. 723</t>
-  </si>
-  <si>
-    <t>The Valley</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>North Elyseberg</t>
-  </si>
-  <si>
-    <t>92423</t>
-  </si>
-  <si>
-    <t>1-847-891-5162</t>
+    <t>Mrs. Silas Leannon</t>
+  </si>
+  <si>
+    <t>gary.windler@gmail.com</t>
+  </si>
+  <si>
+    <t>0m462wh5lp</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Volkman Inc</t>
+  </si>
+  <si>
+    <t>Ellsworth</t>
+  </si>
+  <si>
+    <t>Apt. 374</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Ullrichfort</t>
+  </si>
+  <si>
+    <t>84535-5755</t>
+  </si>
+  <si>
+    <t>(043) 230-0435</t>
   </si>
 </sst>
 </file>

--- a/src/test/Data/CreatedAccount.xlsx
+++ b/src/test/Data/CreatedAccount.xlsx
@@ -59,43 +59,43 @@
     <t>Account1</t>
   </si>
   <si>
-    <t>Mrs. Silas Leannon</t>
-  </si>
-  <si>
-    <t>gary.windler@gmail.com</t>
-  </si>
-  <si>
-    <t>0m462wh5lp</t>
-  </si>
-  <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>Volkman Inc</t>
-  </si>
-  <si>
-    <t>Ellsworth</t>
-  </si>
-  <si>
-    <t>Apt. 374</t>
-  </si>
-  <si>
-    <t>Nouakchott</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Ullrichfort</t>
-  </si>
-  <si>
-    <t>84535-5755</t>
-  </si>
-  <si>
-    <t>(043) 230-0435</t>
+    <t>Dr. Amelia Green</t>
+  </si>
+  <si>
+    <t>phyllis.moen@hotmail.com</t>
+  </si>
+  <si>
+    <t>mw234umm</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Davis, Ratke and Hirthe</t>
+  </si>
+  <si>
+    <t>Hershel</t>
+  </si>
+  <si>
+    <t>Suite 065</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Murrayberg</t>
+  </si>
+  <si>
+    <t>54714</t>
+  </si>
+  <si>
+    <t>(376) 333-5274</t>
   </si>
 </sst>
 </file>
